--- a/docs/Examples/Amphibole/Amphibole_Liquids.xlsx
+++ b/docs/Examples/Amphibole/Amphibole_Liquids.xlsx
@@ -1,20 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25225"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\penny\OneDrive - Oregon State University\Postdoc\PyMME\MyBarometers\Thermobar_outer\docs\Examples\Amphibole\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\My Drive\Postdoc\PyMME\MyBarometers\Thermobar_outer\docs\Examples\Amphibole\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{233CB5CF-1038-4203-B5D1-4B19333D8086}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0D3E4B33-87BA-48E3-A9A8-6C117FAEDBD2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="21840" windowHeight="13290" activeTab="1" xr2:uid="{5C7BD346-92C0-4F53-93F6-E0A947C2FF67}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="3" xr2:uid="{5C7BD346-92C0-4F53-93F6-E0A947C2FF67}"/>
   </bookViews>
   <sheets>
     <sheet name="Amp-Liq" sheetId="1" r:id="rId1"/>
     <sheet name="Amp_only_for_plotting" sheetId="2" r:id="rId2"/>
+    <sheet name="Amp" sheetId="3" r:id="rId3"/>
+    <sheet name="Liq" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -35,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="127" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="181" uniqueCount="78">
   <si>
     <t>SiO2_Liq</t>
   </si>
@@ -644,18 +646,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{278EB92D-3FDB-4831-875A-65F9C6302834}">
   <dimension ref="A1:AA23"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M23" sqref="L1:M23"/>
+    <sheetView topLeftCell="D1" workbookViewId="0">
+      <selection activeCell="O1" sqref="O1:AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
-    <col min="14" max="14" width="31.21875" style="1" customWidth="1"/>
-    <col min="15" max="15" width="20.88671875" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
+    <col min="14" max="14" width="31.1796875" style="1" customWidth="1"/>
+    <col min="15" max="15" width="20.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:27" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:27" ht="29" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -738,7 +740,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="2" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>23</v>
       </c>
@@ -818,7 +820,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>24</v>
       </c>
@@ -898,7 +900,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="4" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>27</v>
       </c>
@@ -978,7 +980,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="5" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>25</v>
       </c>
@@ -1058,7 +1060,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>30</v>
       </c>
@@ -1138,7 +1140,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="7" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>28</v>
       </c>
@@ -1218,7 +1220,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="8" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>26</v>
       </c>
@@ -1298,7 +1300,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>29</v>
       </c>
@@ -1378,7 +1380,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="10" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>31</v>
       </c>
@@ -1458,7 +1460,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="11" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>32</v>
       </c>
@@ -1538,7 +1540,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="12" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>33</v>
       </c>
@@ -1618,7 +1620,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="13" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>34</v>
       </c>
@@ -1698,7 +1700,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="14" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>35</v>
       </c>
@@ -1778,7 +1780,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="15" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>36</v>
       </c>
@@ -1858,7 +1860,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="16" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>37</v>
       </c>
@@ -1938,7 +1940,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>38</v>
       </c>
@@ -2015,7 +2017,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="18" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>39</v>
       </c>
@@ -2092,7 +2094,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="19" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>40</v>
       </c>
@@ -2169,7 +2171,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="20" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>41</v>
       </c>
@@ -2249,7 +2251,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="21" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>42</v>
       </c>
@@ -2329,7 +2331,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="22" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>43</v>
       </c>
@@ -2409,7 +2411,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="23" spans="1:27" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:27" x14ac:dyDescent="0.35">
       <c r="A23" t="s">
         <v>44</v>
       </c>
@@ -2499,16 +2501,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{86DDCC16-2F7F-416A-A58C-C019530E7A63}">
   <dimension ref="A1:N22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F8" sqref="F8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="1" max="1" width="16.44140625" customWidth="1"/>
+    <col min="1" max="1" width="16.453125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A1" t="s">
         <v>22</v>
       </c>
@@ -2552,7 +2554,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A2" t="s">
         <v>71</v>
       </c>
@@ -2596,7 +2598,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A3" t="s">
         <v>71</v>
       </c>
@@ -2640,7 +2642,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A4" t="s">
         <v>71</v>
       </c>
@@ -2681,7 +2683,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A5" t="s">
         <v>71</v>
       </c>
@@ -2722,7 +2724,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A6" t="s">
         <v>71</v>
       </c>
@@ -2763,7 +2765,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A7" t="s">
         <v>71</v>
       </c>
@@ -2801,7 +2803,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A8" t="s">
         <v>71</v>
       </c>
@@ -2842,7 +2844,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A9" t="s">
         <v>71</v>
       </c>
@@ -2883,7 +2885,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A10" t="s">
         <v>71</v>
       </c>
@@ -2924,7 +2926,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A11" t="s">
         <v>71</v>
       </c>
@@ -2965,7 +2967,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A12" t="s">
         <v>71</v>
       </c>
@@ -3006,7 +3008,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A13" t="s">
         <v>71</v>
       </c>
@@ -3047,7 +3049,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A14" t="s">
         <v>71</v>
       </c>
@@ -3088,7 +3090,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A15" t="s">
         <v>72</v>
       </c>
@@ -3129,7 +3131,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A16" t="s">
         <v>72</v>
       </c>
@@ -3170,7 +3172,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="17" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A17" t="s">
         <v>72</v>
       </c>
@@ -3211,7 +3213,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="18" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A18" t="s">
         <v>72</v>
       </c>
@@ -3252,7 +3254,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="19" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A19" t="s">
         <v>72</v>
       </c>
@@ -3296,7 +3298,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="20" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A20" t="s">
         <v>72</v>
       </c>
@@ -3337,7 +3339,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="21" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A21" t="s">
         <v>72</v>
       </c>
@@ -3381,7 +3383,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="22" spans="1:14" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:14" x14ac:dyDescent="0.35">
       <c r="A22" t="s">
         <v>72</v>
       </c>
@@ -3429,4 +3431,1255 @@
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{707D20FF-94A1-4CFD-9C3B-5602C8AECE75}">
+  <dimension ref="A1:M23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:M23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C1" t="s">
+        <v>13</v>
+      </c>
+      <c r="D1" t="s">
+        <v>14</v>
+      </c>
+      <c r="E1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F1" t="s">
+        <v>16</v>
+      </c>
+      <c r="G1" t="s">
+        <v>17</v>
+      </c>
+      <c r="H1" t="s">
+        <v>18</v>
+      </c>
+      <c r="I1" t="s">
+        <v>19</v>
+      </c>
+      <c r="J1" t="s">
+        <v>20</v>
+      </c>
+      <c r="K1" t="s">
+        <v>21</v>
+      </c>
+      <c r="L1" t="s">
+        <v>69</v>
+      </c>
+      <c r="M1" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>23</v>
+      </c>
+      <c r="B2">
+        <v>40.57</v>
+      </c>
+      <c r="C2">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D2">
+        <v>12.82</v>
+      </c>
+      <c r="E2">
+        <v>13.11</v>
+      </c>
+      <c r="F2">
+        <v>0.26</v>
+      </c>
+      <c r="G2">
+        <v>13.02</v>
+      </c>
+      <c r="H2">
+        <v>11.63</v>
+      </c>
+      <c r="I2">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J2">
+        <v>0.92</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0</v>
+      </c>
+      <c r="M2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B3">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="C3">
+        <v>1.88</v>
+      </c>
+      <c r="D3">
+        <v>10.8</v>
+      </c>
+      <c r="E3">
+        <v>11.85</v>
+      </c>
+      <c r="F3">
+        <v>0</v>
+      </c>
+      <c r="G3">
+        <v>11.32</v>
+      </c>
+      <c r="H3">
+        <v>10.94</v>
+      </c>
+      <c r="I3">
+        <v>2.04</v>
+      </c>
+      <c r="J3">
+        <v>0.75</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B4">
+        <v>42.88</v>
+      </c>
+      <c r="C4">
+        <v>3.46</v>
+      </c>
+      <c r="D4">
+        <v>14.28</v>
+      </c>
+      <c r="E4">
+        <v>15.99</v>
+      </c>
+      <c r="F4">
+        <v>0.54</v>
+      </c>
+      <c r="G4">
+        <v>14.25</v>
+      </c>
+      <c r="H4">
+        <v>12.12</v>
+      </c>
+      <c r="I4">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J4">
+        <v>1.18</v>
+      </c>
+      <c r="K4">
+        <v>0.03</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>25</v>
+      </c>
+      <c r="B5">
+        <v>42.2</v>
+      </c>
+      <c r="C5">
+        <v>2.75</v>
+      </c>
+      <c r="D5">
+        <v>11.1</v>
+      </c>
+      <c r="E5">
+        <v>13.1</v>
+      </c>
+      <c r="F5">
+        <v>0.39</v>
+      </c>
+      <c r="G5">
+        <v>13.55</v>
+      </c>
+      <c r="H5">
+        <v>11.07</v>
+      </c>
+      <c r="I5">
+        <v>2.27</v>
+      </c>
+      <c r="J5">
+        <v>0.95</v>
+      </c>
+      <c r="K5">
+        <v>0.01</v>
+      </c>
+      <c r="L5">
+        <v>0</v>
+      </c>
+      <c r="M5">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6">
+        <v>40.369999999999997</v>
+      </c>
+      <c r="C6">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="D6">
+        <v>10.06</v>
+      </c>
+      <c r="E6">
+        <v>11.76</v>
+      </c>
+      <c r="F6">
+        <v>0.19</v>
+      </c>
+      <c r="G6">
+        <v>12.41</v>
+      </c>
+      <c r="H6">
+        <v>10.4</v>
+      </c>
+      <c r="I6">
+        <v>2.09</v>
+      </c>
+      <c r="J6">
+        <v>0.82</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>28</v>
+      </c>
+      <c r="B7">
+        <v>43.4</v>
+      </c>
+      <c r="C7">
+        <v>3.39</v>
+      </c>
+      <c r="D7">
+        <v>12.15</v>
+      </c>
+      <c r="E7">
+        <v>15.28</v>
+      </c>
+      <c r="F7">
+        <v>0.67</v>
+      </c>
+      <c r="G7">
+        <v>14.38</v>
+      </c>
+      <c r="H7">
+        <v>11.55</v>
+      </c>
+      <c r="I7">
+        <v>2.48</v>
+      </c>
+      <c r="J7">
+        <v>1.1399999999999999</v>
+      </c>
+      <c r="K7">
+        <v>0.22</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B8">
+        <v>42.27</v>
+      </c>
+      <c r="C8">
+        <v>2.7</v>
+      </c>
+      <c r="D8">
+        <v>11.33</v>
+      </c>
+      <c r="E8">
+        <v>13.3</v>
+      </c>
+      <c r="F8">
+        <v>0.4</v>
+      </c>
+      <c r="G8">
+        <v>13.22</v>
+      </c>
+      <c r="H8">
+        <v>11.05</v>
+      </c>
+      <c r="I8">
+        <v>2.2799999999999998</v>
+      </c>
+      <c r="J8">
+        <v>0.99</v>
+      </c>
+      <c r="K8">
+        <v>0.01</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A9" t="s">
+        <v>29</v>
+      </c>
+      <c r="B9">
+        <v>41.2</v>
+      </c>
+      <c r="C9">
+        <v>2.02</v>
+      </c>
+      <c r="D9">
+        <v>10.91</v>
+      </c>
+      <c r="E9">
+        <v>12.02</v>
+      </c>
+      <c r="F9">
+        <v>0.22</v>
+      </c>
+      <c r="G9">
+        <v>12.02</v>
+      </c>
+      <c r="H9">
+        <v>10.58</v>
+      </c>
+      <c r="I9">
+        <v>2.15</v>
+      </c>
+      <c r="J9">
+        <v>0.77</v>
+      </c>
+      <c r="K9">
+        <v>0</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A10" t="s">
+        <v>31</v>
+      </c>
+      <c r="B10">
+        <v>43.33</v>
+      </c>
+      <c r="C10">
+        <v>3.28</v>
+      </c>
+      <c r="D10">
+        <v>12.27</v>
+      </c>
+      <c r="E10">
+        <v>14.63</v>
+      </c>
+      <c r="F10">
+        <v>0.62</v>
+      </c>
+      <c r="G10">
+        <v>13.86</v>
+      </c>
+      <c r="H10">
+        <v>11.53</v>
+      </c>
+      <c r="I10">
+        <v>2.46</v>
+      </c>
+      <c r="J10">
+        <v>1.17</v>
+      </c>
+      <c r="K10">
+        <v>0.05</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
+      </c>
+      <c r="M10">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11">
+        <v>39.65</v>
+      </c>
+      <c r="C11">
+        <v>2.02</v>
+      </c>
+      <c r="D11">
+        <v>14.58</v>
+      </c>
+      <c r="E11">
+        <v>12.26</v>
+      </c>
+      <c r="F11">
+        <v>0.13</v>
+      </c>
+      <c r="G11">
+        <v>13.09</v>
+      </c>
+      <c r="H11">
+        <v>11.96</v>
+      </c>
+      <c r="I11">
+        <v>2.13</v>
+      </c>
+      <c r="J11">
+        <v>1.1599999999999999</v>
+      </c>
+      <c r="K11">
+        <v>0.01</v>
+      </c>
+      <c r="L11">
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12">
+        <v>39.07</v>
+      </c>
+      <c r="C12">
+        <v>1.81</v>
+      </c>
+      <c r="D12">
+        <v>14.36</v>
+      </c>
+      <c r="E12">
+        <v>11.72</v>
+      </c>
+      <c r="F12">
+        <v>0</v>
+      </c>
+      <c r="G12">
+        <v>12.54</v>
+      </c>
+      <c r="H12">
+        <v>11.66</v>
+      </c>
+      <c r="I12">
+        <v>1.98</v>
+      </c>
+      <c r="J12">
+        <v>1.05</v>
+      </c>
+      <c r="K12">
+        <v>0</v>
+      </c>
+      <c r="L12">
+        <v>0</v>
+      </c>
+      <c r="M12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>34</v>
+      </c>
+      <c r="B13">
+        <v>40.1</v>
+      </c>
+      <c r="C13">
+        <v>2.12</v>
+      </c>
+      <c r="D13">
+        <v>14.87</v>
+      </c>
+      <c r="E13">
+        <v>13.1</v>
+      </c>
+      <c r="F13">
+        <v>0.26</v>
+      </c>
+      <c r="G13">
+        <v>13.53</v>
+      </c>
+      <c r="H13">
+        <v>12.3</v>
+      </c>
+      <c r="I13">
+        <v>2.33</v>
+      </c>
+      <c r="J13">
+        <v>1.29</v>
+      </c>
+      <c r="K13">
+        <v>0.03</v>
+      </c>
+      <c r="L13">
+        <v>0</v>
+      </c>
+      <c r="M13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>35</v>
+      </c>
+      <c r="B14">
+        <v>40.57</v>
+      </c>
+      <c r="C14">
+        <v>2.4500000000000002</v>
+      </c>
+      <c r="D14">
+        <v>12.82</v>
+      </c>
+      <c r="E14">
+        <v>13.11</v>
+      </c>
+      <c r="F14">
+        <v>0.26</v>
+      </c>
+      <c r="G14">
+        <v>13.02</v>
+      </c>
+      <c r="H14">
+        <v>11.63</v>
+      </c>
+      <c r="I14">
+        <v>2.2000000000000002</v>
+      </c>
+      <c r="J14">
+        <v>0.92</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B15">
+        <v>39.450000000000003</v>
+      </c>
+      <c r="C15">
+        <v>1.88</v>
+      </c>
+      <c r="D15">
+        <v>10.8</v>
+      </c>
+      <c r="E15">
+        <v>11.85</v>
+      </c>
+      <c r="F15">
+        <v>0</v>
+      </c>
+      <c r="G15">
+        <v>11.32</v>
+      </c>
+      <c r="H15">
+        <v>10.94</v>
+      </c>
+      <c r="I15">
+        <v>2.04</v>
+      </c>
+      <c r="J15">
+        <v>0.75</v>
+      </c>
+      <c r="K15">
+        <v>0</v>
+      </c>
+      <c r="L15">
+        <v>0</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>37</v>
+      </c>
+      <c r="B16">
+        <v>42.88</v>
+      </c>
+      <c r="C16">
+        <v>3.46</v>
+      </c>
+      <c r="D16">
+        <v>14.28</v>
+      </c>
+      <c r="E16">
+        <v>15.99</v>
+      </c>
+      <c r="F16">
+        <v>0.54</v>
+      </c>
+      <c r="G16">
+        <v>14.25</v>
+      </c>
+      <c r="H16">
+        <v>12.12</v>
+      </c>
+      <c r="I16">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J16">
+        <v>1.18</v>
+      </c>
+      <c r="K16">
+        <v>0.03</v>
+      </c>
+      <c r="L16">
+        <v>0</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>38</v>
+      </c>
+      <c r="B17">
+        <v>46.78</v>
+      </c>
+      <c r="C17">
+        <v>1.23</v>
+      </c>
+      <c r="D17">
+        <v>7.74</v>
+      </c>
+      <c r="E17">
+        <v>13.091000000000001</v>
+      </c>
+      <c r="F17">
+        <v>0.24</v>
+      </c>
+      <c r="G17">
+        <v>14.53</v>
+      </c>
+      <c r="H17">
+        <v>11.09</v>
+      </c>
+      <c r="I17">
+        <v>1.46</v>
+      </c>
+      <c r="J17">
+        <v>0.17</v>
+      </c>
+      <c r="L17">
+        <v>0</v>
+      </c>
+      <c r="M17">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B18">
+        <v>48.05</v>
+      </c>
+      <c r="C18">
+        <v>1.3</v>
+      </c>
+      <c r="D18">
+        <v>6.71</v>
+      </c>
+      <c r="E18">
+        <v>12.251000000000001</v>
+      </c>
+      <c r="F18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G18">
+        <v>15.13</v>
+      </c>
+      <c r="H18">
+        <v>11.16</v>
+      </c>
+      <c r="I18">
+        <v>1.33</v>
+      </c>
+      <c r="J18">
+        <v>0.15</v>
+      </c>
+      <c r="L18">
+        <v>0</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>40</v>
+      </c>
+      <c r="B19">
+        <v>48.05</v>
+      </c>
+      <c r="C19">
+        <v>1.3</v>
+      </c>
+      <c r="D19">
+        <v>6.71</v>
+      </c>
+      <c r="E19">
+        <v>12.251000000000001</v>
+      </c>
+      <c r="F19">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="G19">
+        <v>15.13</v>
+      </c>
+      <c r="H19">
+        <v>11.16</v>
+      </c>
+      <c r="I19">
+        <v>1.33</v>
+      </c>
+      <c r="J19">
+        <v>0.15</v>
+      </c>
+      <c r="L19">
+        <v>0</v>
+      </c>
+      <c r="M19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20">
+        <v>50.04</v>
+      </c>
+      <c r="C20">
+        <v>0.67</v>
+      </c>
+      <c r="D20">
+        <v>4.3099999999999996</v>
+      </c>
+      <c r="E20">
+        <v>17.48</v>
+      </c>
+      <c r="F20">
+        <v>0.44</v>
+      </c>
+      <c r="G20">
+        <v>12.68</v>
+      </c>
+      <c r="H20">
+        <v>11.06</v>
+      </c>
+      <c r="I20">
+        <v>0.92</v>
+      </c>
+      <c r="J20">
+        <v>0.39</v>
+      </c>
+      <c r="K20">
+        <v>0</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21">
+        <v>48.42</v>
+      </c>
+      <c r="C21">
+        <v>0.91</v>
+      </c>
+      <c r="D21">
+        <v>4.71</v>
+      </c>
+      <c r="E21">
+        <v>18.309999999999999</v>
+      </c>
+      <c r="F21">
+        <v>0.37</v>
+      </c>
+      <c r="G21">
+        <v>11.41</v>
+      </c>
+      <c r="H21">
+        <v>10.88</v>
+      </c>
+      <c r="I21">
+        <v>1.02</v>
+      </c>
+      <c r="J21">
+        <v>0.46</v>
+      </c>
+      <c r="K21">
+        <v>0.01</v>
+      </c>
+      <c r="L21">
+        <v>0</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>43</v>
+      </c>
+      <c r="B22">
+        <v>44.14</v>
+      </c>
+      <c r="C22">
+        <v>1.41</v>
+      </c>
+      <c r="D22">
+        <v>9.6</v>
+      </c>
+      <c r="E22">
+        <v>19.18</v>
+      </c>
+      <c r="F22">
+        <v>0.35</v>
+      </c>
+      <c r="G22">
+        <v>10.039999999999999</v>
+      </c>
+      <c r="H22">
+        <v>10.42</v>
+      </c>
+      <c r="I22">
+        <v>1.57</v>
+      </c>
+      <c r="J22">
+        <v>1.02</v>
+      </c>
+      <c r="K22">
+        <v>0</v>
+      </c>
+      <c r="L22">
+        <v>0</v>
+      </c>
+      <c r="M22">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>44</v>
+      </c>
+      <c r="B23">
+        <v>43.22</v>
+      </c>
+      <c r="C23">
+        <v>1.22</v>
+      </c>
+      <c r="D23">
+        <v>13.13</v>
+      </c>
+      <c r="E23">
+        <v>18.93</v>
+      </c>
+      <c r="F23">
+        <v>0.31</v>
+      </c>
+      <c r="G23">
+        <v>7.74</v>
+      </c>
+      <c r="H23">
+        <v>10.3</v>
+      </c>
+      <c r="I23">
+        <v>1.53</v>
+      </c>
+      <c r="J23">
+        <v>0.89</v>
+      </c>
+      <c r="K23">
+        <v>0</v>
+      </c>
+      <c r="L23">
+        <v>0</v>
+      </c>
+      <c r="M23">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77690464-3F34-48D5-8080-F3A1E2056DD3}">
+  <dimension ref="A1:M7"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" t="s">
+        <v>5</v>
+      </c>
+      <c r="H1" t="s">
+        <v>6</v>
+      </c>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
+      <c r="J1" t="s">
+        <v>8</v>
+      </c>
+      <c r="K1" t="s">
+        <v>9</v>
+      </c>
+      <c r="L1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M1" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B2">
+        <v>62.317402705027561</v>
+      </c>
+      <c r="C2">
+        <v>0.59258295722127685</v>
+      </c>
+      <c r="D2">
+        <v>17.015042322847503</v>
+      </c>
+      <c r="E2">
+        <v>5.5789738038649705</v>
+      </c>
+      <c r="F2">
+        <v>0.1473838340855729</v>
+      </c>
+      <c r="G2">
+        <v>1.4937840200535397</v>
+      </c>
+      <c r="H2">
+        <v>5.1990671716793324</v>
+      </c>
+      <c r="I2">
+        <v>3.7995169157401407</v>
+      </c>
+      <c r="J2">
+        <v>3.8401248563986585</v>
+      </c>
+      <c r="K2">
+        <v>0</v>
+      </c>
+      <c r="L2">
+        <v>0.32096743332332595</v>
+      </c>
+      <c r="M2">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3">
+        <v>63.410655085328358</v>
+      </c>
+      <c r="C3">
+        <v>0.56762678048216109</v>
+      </c>
+      <c r="D3">
+        <v>16.682222523007152</v>
+      </c>
+      <c r="E3">
+        <v>5.2116479171522521</v>
+      </c>
+      <c r="F3">
+        <v>0.13947330873217689</v>
+      </c>
+      <c r="G3">
+        <v>1.3430741921440521</v>
+      </c>
+      <c r="H3">
+        <v>4.6802907711626132</v>
+      </c>
+      <c r="I3">
+        <v>3.7972257273731147</v>
+      </c>
+      <c r="J3">
+        <v>4.1183363541895686</v>
+      </c>
+      <c r="K3">
+        <v>0</v>
+      </c>
+      <c r="L3">
+        <v>0.32085386148616735</v>
+      </c>
+      <c r="M3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="B4">
+        <v>64.978351092853472</v>
+      </c>
+      <c r="C4">
+        <v>0.53184026005744567</v>
+      </c>
+      <c r="D4">
+        <v>16.204967425431715</v>
+      </c>
+      <c r="E4">
+        <v>4.6849119717873613</v>
+      </c>
+      <c r="F4">
+        <v>0.12812981729561296</v>
+      </c>
+      <c r="G4">
+        <v>1.1269601458672929</v>
+      </c>
+      <c r="H4">
+        <v>3.936378654854618</v>
+      </c>
+      <c r="I4">
+        <v>3.7939402217385538</v>
+      </c>
+      <c r="J4">
+        <v>4.5172845405309445</v>
+      </c>
+      <c r="K4">
+        <v>0</v>
+      </c>
+      <c r="L4">
+        <v>0.32069100237066112</v>
+      </c>
+      <c r="M4">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A5" t="s">
+        <v>49</v>
+      </c>
+      <c r="B5">
+        <v>60.953715432689123</v>
+      </c>
+      <c r="C5">
+        <v>0.62371247607583158</v>
+      </c>
+      <c r="D5">
+        <v>17.430190858723215</v>
+      </c>
+      <c r="E5">
+        <v>6.0371641042352673</v>
+      </c>
+      <c r="F5">
+        <v>0.15725116475533879</v>
+      </c>
+      <c r="G5">
+        <v>1.6817745315216575</v>
+      </c>
+      <c r="H5">
+        <v>5.8461718908838298</v>
+      </c>
+      <c r="I5">
+        <v>3.8023748691925574</v>
+      </c>
+      <c r="J5">
+        <v>3.4930929309330216</v>
+      </c>
+      <c r="K5">
+        <v>0</v>
+      </c>
+      <c r="L5">
+        <v>0.32110909911945873</v>
+      </c>
+      <c r="M5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A6" t="s">
+        <v>50</v>
+      </c>
+      <c r="B6">
+        <v>60.188393597676495</v>
+      </c>
+      <c r="C6">
+        <v>0.64118283088230787</v>
+      </c>
+      <c r="D6">
+        <v>17.663178469390271</v>
+      </c>
+      <c r="E6">
+        <v>6.2943074013660478</v>
+      </c>
+      <c r="F6">
+        <v>0.16278885933388548</v>
+      </c>
+      <c r="G6">
+        <v>1.7872776377837198</v>
+      </c>
+      <c r="H6">
+        <v>6.2093368050050008</v>
+      </c>
+      <c r="I6">
+        <v>3.8039787957121867</v>
+      </c>
+      <c r="J6">
+        <v>3.2983333878965184</v>
+      </c>
+      <c r="K6">
+        <v>0</v>
+      </c>
+      <c r="L6">
+        <v>0.32118860409780237</v>
+      </c>
+      <c r="M6">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.35">
+      <c r="A7" t="s">
+        <v>51</v>
+      </c>
+      <c r="B7">
+        <v>63.785726270105506</v>
+      </c>
+      <c r="C7">
+        <v>0.55906485741141265</v>
+      </c>
+      <c r="D7">
+        <v>16.568039266795928</v>
+      </c>
+      <c r="E7">
+        <v>5.0856263707909735</v>
+      </c>
+      <c r="F7">
+        <v>0.13675937902118779</v>
+      </c>
+      <c r="G7">
+        <v>1.2913689182931789</v>
+      </c>
+      <c r="H7">
+        <v>4.5023098376816417</v>
+      </c>
+      <c r="I7">
+        <v>3.7964396703282342</v>
+      </c>
+      <c r="J7">
+        <v>4.2137846861349795</v>
+      </c>
+      <c r="K7">
+        <v>0</v>
+      </c>
+      <c r="L7">
+        <v>0.32081489745161507</v>
+      </c>
+      <c r="M7">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>